--- a/mitchell/Mitchell(20171016).xlsx
+++ b/mitchell/Mitchell(20171016).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTM-WORK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTM-WORK\Desktop\java.git\mitchell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>改修</t>
-    <rPh sb="0" eb="2">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>boardMain.jsp</t>
     <phoneticPr fontId="1"/>
@@ -90,16 +83,115 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（各変数）もしnullなら、””を代入する。</t>
-    <rPh sb="1" eb="4">
+    <t>Board2の改修</t>
+    <rPh sb="7" eb="9">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストスコープからの値を代入する。（各変数）もしnullなら、””を代入する。</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
       <t>カクヘンスウ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="36" eb="38">
       <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回、Show(ArrayList&lt;BoardBean&gt;)を使いましたが、今回Show(BoardLogic.Search(String, String ArrayList&lt;BoardBean&gt;)に変わる。もし二つのStringは""なら、全部のArrayList&lt;BoardBean&gt;のオブジェクトを示す。」</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索の為に新しいフォームを作る。2つ入力するところを作る（name, comment)。上記のnameやcommentの値を自動的に入力する所ところを入れる。フォームのhiddenの値はaction = search.</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいactionの値があるのでDoPostに付ける。リクエストスコープから取って、リクエストスコープにいる。掲示板メインに戻る。</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -108,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +213,15 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -147,8 +248,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,85 +535,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mitchell/Mitchell(20171016).xlsx
+++ b/mitchell/Mitchell(20171016).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>boardMain.jsp</t>
     <phoneticPr fontId="1"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Search(String, String, boardList)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Board2の改修</t>
     <rPh sb="7" eb="9">
       <t>カイシュウ</t>
@@ -131,49 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索の為に新しいフォームを作る。2つ入力するところを作る（name, comment)。上記のnameやcommentの値を自動的に入力する所ところを入れる。フォームのhiddenの値はaction = search.</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新しいactionの値があるのでDoPostに付ける。リクエストスコープから取って、リクエストスコープにいる。掲示板メインに戻る。</t>
     <rPh sb="0" eb="1">
       <t>アタラ</t>
@@ -192,6 +145,120 @@
     </rPh>
     <rPh sb="62" eb="63">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索の為に新しいフォームを作る。2つ入力するところを作る（name, comment)。上記のnameやcommentの値を自動的に入力する所ところを入れる。フォームのhiddenの値はaction = search.　Nameの入力するところの隣に「＊完全一致」・Commentの入力するところの隣に「＊部分一致」</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Search(String, String, ArrayList&lt;BoardBean&gt;)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二つのStringを使って、ArrayList&lt;BoardBean&gt;の中に同じStringを探す。Matchがあれば、別のArrayList&lt;BoardBean&gt;に入れる。このArrayList&lt;BoardBean&gt;を返す。両方のStringが””なら、引数のArrayList&lt;BoardBean&gt;を返す。一つのStringが""なら、ほかのStringだけ使う。</t>
+    <rPh sb="0" eb="1">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -537,15 +604,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -563,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -579,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -597,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -612,7 +679,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/mitchell/Mitchell(20171016).xlsx
+++ b/mitchell/Mitchell(20171016).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>boardMain.jsp</t>
     <phoneticPr fontId="1"/>
@@ -86,22 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リクエストスコープからの値を代入する。（各変数）もしnullなら、””を代入する。</t>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>カクヘンスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前回、Show(ArrayList&lt;BoardBean&gt;)を使いましたが、今回Show(BoardLogic.Search(String, String ArrayList&lt;BoardBean&gt;)に変わる。もし二つのStringは""なら、全部のArrayList&lt;BoardBean&gt;のオブジェクトを示す。」</t>
     <rPh sb="0" eb="2">
       <t>ゼンカイ</t>
@@ -260,6 +244,33 @@
     <rPh sb="180" eb="181">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストスコープからの値を取り出すする。（各変数）もしnullなら、””を代入する。</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カクヘンスウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardLogicをインスタンスしてBoardLogic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Parameter Get, </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -604,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -630,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -638,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -646,7 +657,12 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -664,7 +680,12 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -679,10 +700,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/mitchell/Mitchell(20171016).xlsx
+++ b/mitchell/Mitchell(20171016).xlsx
@@ -24,58 +24,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>boardMain.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment, name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索のフォーム。「search」</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+  <si>
+    <t>新規</t>
     <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索の表「Show(~.search())を」呼ぶ。</t>
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規（しんき）</t>
     <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BoardDo.Java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新則</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DoPostの中に「action = search」</t>
-    <rPh sb="7" eb="8">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BoardLogic</t>
+      <t>シンキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -86,191 +47,376 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>前回、Show(ArrayList&lt;BoardBean&gt;)を使いましたが、今回Show(BoardLogic.Search(String, String ArrayList&lt;BoardBean&gt;)に変わる。もし二つのStringは""なら、全部のArrayList&lt;BoardBean&gt;のオブジェクトを示す。」</t>
+    <t>boardMain.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力するところ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「name」と「comment」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しい変数</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各引数がnullなら空文字””を代入する。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索の表</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardLogicのインスタンス名.show();</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回の(Show(ArrayList&lt;BoardBean&gt;)のところを変わる。</t>
     <rPh sb="0" eb="2">
       <t>ゼンカイ</t>
     </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DoPostの改修</t>
+    <rPh sb="7" eb="9">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request Parameter Get: 「action]の値は「search」search</t>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request Parameter Get: 「name」と「comment」。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request Attribute Set: 「name」 = 上と同じ。「comment」 = 上と同じ。</t>
+    <rPh sb="32" eb="33">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス名.show(インスタンス名.search(String, String, ArrayList&lt;BoardBean&gt;)。</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request Attribute Get: 「comment」を取り出す。</t>
+    <rPh sb="33" eb="34">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request Attribute Get: 「name」を取り出す。</t>
     <rPh sb="30" eb="31">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新しいactionの値があるのでDoPostに付ける。リクエストスコープから取って、リクエストスコープにいる。掲示板メインに戻る。</t>
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動に入力するところに値を入れる。上記の「name」と「comment」。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request Parameter Set: Hidden, name = 「action」, value = 「search」。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォワードの値は「boardMain.jsp」。</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardLogic。Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardDo.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいメソッド</t>
     <rPh sb="0" eb="1">
       <t>アタラ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索の為に新しいフォームを作る。2つ入力するところを作る（name, comment)。上記のnameやcommentの値を自動的に入力する所ところを入れる。フォームのhiddenの値はaction = search.　Nameの入力するところの隣に「＊完全一致」・Commentの入力するところの隣に「＊部分一致」</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>トナリ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>トナリ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Search(String, String, ArrayList&lt;BoardBean&gt;)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二つのStringを使って、ArrayList&lt;BoardBean&gt;の中に同じStringを探す。Matchがあれば、別のArrayList&lt;BoardBean&gt;に入れる。このArrayList&lt;BoardBean&gt;を返す。両方のStringが””なら、引数のArrayList&lt;BoardBean&gt;を返す。一つのStringが""なら、ほかのStringだけ使う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二つの引数Stringの値を使って、ArrayList&lt;BoardBean&gt;のオブジェクトの内容と同じ値を探す。</t>
     <rPh sb="0" eb="1">
       <t>フタ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>サガ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
+    <rPh sb="3" eb="5">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="151" eb="152">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リクエストスコープからの値を取り出すする。（各変数）もしnullなら、””を代入する。</t>
     <rPh sb="12" eb="13">
       <t>アタイ</t>
     </rPh>
     <rPh sb="14" eb="15">
-      <t>ト</t>
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;BoardBean&gt; Search(String, String, ArrayList&lt;BoardBean&gt;)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①の引数StringはBoardBeanのインスタンスの「name」と同じ値を探す。完全一致。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②の引数StringはBoardBeanのインスタンスの「comment」と同じ値を探す。部分一致</t>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両方のStringが空文字””の場合：戻り値は引数ArrayList&lt;BoardBean&gt;。</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①や②や両方の引数Stringが空文字””じゃない場合：ArrayList&lt;BoardBean&gt;をインスタンスする。</t>
+    <rPh sb="4" eb="6">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
     </rPh>
     <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>カクヘンスウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BoardLogicをインスタンスしてBoardLogic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Request Parameter Get, </t>
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿フォーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「comment」の入力するところの隣に「※必須入力（ひっすにゅうりょく）」。</t>
+    <rPh sb="22" eb="24">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「comment」の入力するところの隣に「※部分一致（ぶぶんいっち）」。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「name」の入力するところの隣に「※完全一致（かんぜんいっち）」。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記に応じて、同じ値があれば、BoardBeanのインスタンスが新しいArrayList&lt;BoardBean&gt;のインスタンスを入れる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値はこのインスタンスしたArrayList&lt;BoardBean&gt;。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -278,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,16 +449,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -320,18 +480,355 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,100 +1110,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="25"/>
+      <c r="C7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="25"/>
+      <c r="C12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="25"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="29"/>
+      <c r="C14" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="25"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="25"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="29"/>
+      <c r="C25" s="45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
+      <c r="D25" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C22:C23"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
